--- a/Aufgaben/Aufgabe 1/Tracetable Boxes.xlsx
+++ b/Aufgaben/Aufgabe 1/Tracetable Boxes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\Documents\HFU\MKB 2\EIA2\EIA2\Aufgaben\Aufgabe 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47E7C47-5C9E-40D3-8668-3617DFC8DA3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1426F808-DC11-48B1-A9A0-F96C10EBAB25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{5A344F90-F8CB-4F2F-B05B-AA1B99EBD101}"/>
+    <workbookView xWindow="-14385" yWindow="15915" windowWidth="27000" windowHeight="14235" xr2:uid="{5A344F90-F8CB-4F2F-B05B-AA1B99EBD101}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
   <si>
     <t>Zeile</t>
   </si>
@@ -57,7 +57,124 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>0&lt;5</t>
+    <t>string _color</t>
+  </si>
+  <si>
+    <t>number _x</t>
+  </si>
+  <si>
+    <t>number _y</t>
+  </si>
+  <si>
+    <t>number _with</t>
+  </si>
+  <si>
+    <t>number _height</t>
+  </si>
+  <si>
+    <t>38-45</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>"#ff0000"</t>
+  </si>
+  <si>
+    <t>"#00ff00"</t>
+  </si>
+  <si>
+    <t>"#0000ff"</t>
+  </si>
+  <si>
+    <t>i≠2, y+50</t>
+  </si>
+  <si>
+    <t>Case 0 wird ausgeführt</t>
+  </si>
+  <si>
+    <t>Restdivision: 170</t>
+  </si>
+  <si>
+    <t>Schleife definiert a</t>
+  </si>
+  <si>
+    <t>function placeDiv wird aufgerufen</t>
+  </si>
+  <si>
+    <t>Div Element wird in body erstellt</t>
+  </si>
+  <si>
+    <t>Styling wird definiert</t>
+  </si>
+  <si>
+    <t>i=0≠4</t>
+  </si>
+  <si>
+    <t>Div Element wird in Body erstellt</t>
+  </si>
+  <si>
+    <t>a&lt;0</t>
+  </si>
+  <si>
+    <t>i++</t>
+  </si>
+  <si>
+    <t>switch auf 1 erhöt</t>
+  </si>
+  <si>
+    <t>case 1 wird ausgeführt</t>
+  </si>
+  <si>
+    <t>schleife definiert a</t>
+  </si>
+  <si>
+    <t>i=1≠4</t>
+  </si>
+  <si>
+    <t>i=2≠4</t>
+  </si>
+  <si>
+    <t>switch auf 2 erhöt</t>
+  </si>
+  <si>
+    <t>case default wird ausgeführt</t>
+  </si>
+  <si>
+    <t>i=3, y+50</t>
+  </si>
+  <si>
+    <t>Switch wird auf 3 erhöt</t>
+  </si>
+  <si>
+    <t>case 3 continue wird ausgeführt, beendet Schleifendurchlauf)</t>
+  </si>
+  <si>
+    <t>i=4, y+50</t>
+  </si>
+  <si>
+    <t>Switch wird auf 4 erhöt</t>
+  </si>
+  <si>
+    <t>Case 4 wird ausgeführt</t>
+  </si>
+  <si>
+    <t>i=4</t>
+  </si>
+  <si>
+    <t>break wird ausgeführt</t>
+  </si>
+  <si>
+    <t>i++ ENDE</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>Beide Tracetables wurden in Zusammenarbeit mit Manuel Matern, Jonas Meujen, und Marco Zaretzke</t>
   </si>
 </sst>
 </file>
@@ -409,15 +526,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E89C89-7F54-4BFB-B8BE-475CE3B8C238}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="93.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,23 +569,1097 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>170</v>
+      </c>
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>170</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>-10</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
         <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="N34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>340</v>
+      </c>
+      <c r="K36">
+        <v>100</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>340</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>340</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+      <c r="M48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>-10</v>
+      </c>
+      <c r="N52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>120</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="N58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62">
+        <v>110</v>
+      </c>
+      <c r="K62">
+        <v>120</v>
+      </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
+      <c r="M62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>23</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68">
+        <v>110</v>
+      </c>
+      <c r="K68">
+        <v>120</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>23</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74">
+        <v>110</v>
+      </c>
+      <c r="K74">
+        <v>120</v>
+      </c>
+      <c r="L74">
+        <v>10</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>23</v>
+      </c>
+      <c r="G78">
+        <v>-10</v>
+      </c>
+      <c r="N78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>170</v>
+      </c>
+      <c r="N81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="N84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <v>220</v>
+      </c>
+      <c r="N86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>15</v>
+      </c>
+      <c r="N89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+      <c r="N91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>50</v>
+      </c>
+      <c r="K93">
+        <v>220</v>
+      </c>
+      <c r="L93">
+        <v>50</v>
+      </c>
+      <c r="M93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>25</v>
+      </c>
+      <c r="N96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>26</v>
+      </c>
+      <c r="N97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
